--- a/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357063804690767</v>
+        <v>3.380471325593533</v>
       </c>
       <c r="C2">
-        <v>0.4415767629608069</v>
+        <v>0.458993942347405</v>
       </c>
       <c r="D2">
-        <v>0.002266038589990416</v>
+        <v>0.06470351359848792</v>
       </c>
       <c r="E2">
-        <v>0.02569678354626248</v>
+        <v>0.04188940477610181</v>
       </c>
       <c r="F2">
-        <v>2.681127524797532</v>
+        <v>0.7737582037959214</v>
       </c>
       <c r="G2">
-        <v>0.0008357188314981521</v>
+        <v>0.0008127002152426669</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07168803202690555</v>
+        <v>0.05019714565715905</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2561308298592166</v>
+        <v>0.317785087085781</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.995254474730643</v>
+        <v>1.975555841067148</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938989103449558</v>
+        <v>2.942993897584529</v>
       </c>
       <c r="C3">
-        <v>0.3821044313774848</v>
+        <v>0.4117345097129999</v>
       </c>
       <c r="D3">
-        <v>0.001891346463543719</v>
+        <v>0.05977972977471779</v>
       </c>
       <c r="E3">
-        <v>0.02578893026215656</v>
+        <v>0.04232504686842464</v>
       </c>
       <c r="F3">
-        <v>2.520136486541432</v>
+        <v>0.7592727633748311</v>
       </c>
       <c r="G3">
-        <v>0.0008445427836507462</v>
+        <v>0.0008175432357842981</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07252633065768244</v>
+        <v>0.05305934154567282</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2296249026425983</v>
+        <v>0.2819161288155954</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.873351141158992</v>
+        <v>1.954251557099553</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.686624255049651</v>
+        <v>2.675185593221499</v>
       </c>
       <c r="C4">
-        <v>0.3459603081498699</v>
+        <v>0.3827432431359625</v>
       </c>
       <c r="D4">
-        <v>0.001677980489306563</v>
+        <v>0.05679435175171221</v>
       </c>
       <c r="E4">
-        <v>0.02586377178793065</v>
+        <v>0.04265118474950125</v>
       </c>
       <c r="F4">
-        <v>2.426568295037313</v>
+        <v>0.7523690192880821</v>
       </c>
       <c r="G4">
-        <v>0.0008501071281252471</v>
+        <v>0.0008206126806734142</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07312057495618873</v>
+        <v>0.05491256250680943</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2136966410917296</v>
+        <v>0.2600532633992714</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.802569041115149</v>
+        <v>1.946990084041772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.584744468907957</v>
+        <v>2.566207911567233</v>
       </c>
       <c r="C5">
-        <v>0.3313074456166305</v>
+        <v>0.3709316114523915</v>
       </c>
       <c r="D5">
-        <v>0.001594550266611705</v>
+        <v>0.05558670261627441</v>
       </c>
       <c r="E5">
-        <v>0.02589875127833086</v>
+        <v>0.04279848889883908</v>
       </c>
       <c r="F5">
-        <v>2.389658527705706</v>
+        <v>0.7500321466980751</v>
       </c>
       <c r="G5">
-        <v>0.0008524131174304959</v>
+        <v>0.0008218881070783305</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0733819694544664</v>
+        <v>0.05569135176040918</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2072845053227326</v>
+        <v>0.2511799412661446</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.7746627513731</v>
+        <v>1.945422308255445</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.567881879909748</v>
+        <v>2.548120411142747</v>
       </c>
       <c r="C6">
-        <v>0.3288784688385533</v>
+        <v>0.3689703402737905</v>
       </c>
       <c r="D6">
-        <v>0.001580890674690139</v>
+        <v>0.05538669514027106</v>
       </c>
       <c r="E6">
-        <v>0.0259048271631972</v>
+        <v>0.0428238085174435</v>
       </c>
       <c r="F6">
-        <v>2.383600384308167</v>
+        <v>0.7496722090140864</v>
       </c>
       <c r="G6">
-        <v>0.0008527983950557305</v>
+        <v>0.0008221013910704015</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07342651437392789</v>
+        <v>0.05582207931411887</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2062243007428037</v>
+        <v>0.2497085803983055</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.770083237922663</v>
+        <v>1.945243980670853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.685246540465243</v>
+        <v>2.673715307425653</v>
       </c>
       <c r="C7">
-        <v>0.3457624080505184</v>
+        <v>0.382583942163933</v>
       </c>
       <c r="D7">
-        <v>0.001676841923164751</v>
+        <v>0.05677802963481327</v>
       </c>
       <c r="E7">
-        <v>0.02586422553030054</v>
+        <v>0.04265311348617207</v>
       </c>
       <c r="F7">
-        <v>2.426065713475495</v>
+        <v>0.7523356050782866</v>
       </c>
       <c r="G7">
-        <v>0.0008501380696196334</v>
+        <v>0.0008206297813229679</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07312402329656287</v>
+        <v>0.05492297068222518</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2136098564342461</v>
+        <v>0.2599334547181513</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.802188996230711</v>
+        <v>1.94696339936857</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211930664498311</v>
+        <v>3.229433362577538</v>
       </c>
       <c r="C8">
-        <v>0.4209824755001534</v>
+        <v>0.4426909028970272</v>
       </c>
       <c r="D8">
-        <v>0.002132946777192224</v>
+        <v>0.0629975635565998</v>
       </c>
       <c r="E8">
-        <v>0.02572469493892982</v>
+        <v>0.04202722616021504</v>
       </c>
       <c r="F8">
-        <v>2.624453962777949</v>
+        <v>0.76833564635497</v>
       </c>
       <c r="G8">
-        <v>0.000838731985009061</v>
+        <v>0.0008143505186208829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07196009442215612</v>
+        <v>0.05116382969847511</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2469144027277252</v>
+        <v>0.3053813043886038</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.952324875758023</v>
+        <v>1.966957726649724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.285643865441102</v>
+        <v>4.327864058960358</v>
       </c>
       <c r="C9">
-        <v>0.5723216483343379</v>
+        <v>0.5609726870695795</v>
       </c>
       <c r="D9">
-        <v>0.003194763210281337</v>
+        <v>0.07552402570037486</v>
       </c>
       <c r="E9">
-        <v>0.02560160202482731</v>
+        <v>0.04128182452264006</v>
       </c>
       <c r="F9">
-        <v>3.060778101356021</v>
+        <v>0.816658061684862</v>
       </c>
       <c r="G9">
-        <v>0.0008174438372491712</v>
+        <v>0.0008027725763411598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07034632820268172</v>
+        <v>0.0445765092552719</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3153945120481723</v>
+        <v>0.3960009757933562</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.283237520868056</v>
+        <v>2.055797092854249</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.109628348391823</v>
+        <v>5.143673400474199</v>
       </c>
       <c r="C10">
-        <v>0.6872375006374796</v>
+        <v>0.6484428614038222</v>
       </c>
       <c r="D10">
-        <v>0.004133248147150326</v>
+        <v>0.08497375335125668</v>
       </c>
       <c r="E10">
-        <v>0.0256117926649635</v>
+        <v>0.04105246813099761</v>
       </c>
       <c r="F10">
-        <v>3.418572464689163</v>
+        <v>0.8642085816391756</v>
       </c>
       <c r="G10">
-        <v>0.0008023332114754299</v>
+        <v>0.0007946782029791632</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0696267048314354</v>
+        <v>0.04025026301273815</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3683000166772956</v>
+        <v>0.4638280138666602</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.555206431832701</v>
+        <v>2.156467952903824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.494744048391681</v>
+        <v>5.517572974525535</v>
       </c>
       <c r="C11">
-        <v>0.7406869710774515</v>
+        <v>0.6884370131781168</v>
       </c>
       <c r="D11">
-        <v>0.004609774984777992</v>
+        <v>0.08933726277485476</v>
       </c>
       <c r="E11">
-        <v>0.02564059423785814</v>
+        <v>0.04102307538696337</v>
       </c>
       <c r="F11">
-        <v>3.591590207180474</v>
+        <v>0.8888705399942722</v>
       </c>
       <c r="G11">
-        <v>0.0007955413302682478</v>
+        <v>0.0007910765977970062</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06941547626892941</v>
+        <v>0.03840210081430406</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3931016712811868</v>
+        <v>0.4950373716359167</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.686897403754571</v>
+        <v>2.211194314635918</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.642309134584934</v>
+        <v>5.659636021054723</v>
       </c>
       <c r="C12">
-        <v>0.7611306942997373</v>
+        <v>0.7036180275565016</v>
       </c>
       <c r="D12">
-        <v>0.004798882523095571</v>
+        <v>0.090999912361724</v>
       </c>
       <c r="E12">
-        <v>0.02565520150232015</v>
+        <v>0.04102324710282268</v>
       </c>
       <c r="F12">
-        <v>3.65879082983966</v>
+        <v>0.8986828144908827</v>
       </c>
       <c r="G12">
-        <v>0.0007929780985595617</v>
+        <v>0.0007897235759381473</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06935363173747078</v>
+        <v>0.03772026414358187</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4026154190655973</v>
+        <v>0.5069138503600215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.738075698015834</v>
+        <v>2.233314992338421</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.610447031623835</v>
+        <v>5.629017793265689</v>
       </c>
       <c r="C13">
-        <v>0.7567181123196463</v>
+        <v>0.700346803668225</v>
       </c>
       <c r="D13">
-        <v>0.004757742826331679</v>
+        <v>0.09064135738336176</v>
       </c>
       <c r="E13">
-        <v>0.0256518870354947</v>
+        <v>0.04102269867475705</v>
       </c>
       <c r="F13">
-        <v>3.644239531013227</v>
+        <v>0.8965478846909178</v>
       </c>
       <c r="G13">
-        <v>0.0007935298027099678</v>
+        <v>0.0007900145045032717</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06936611912530921</v>
+        <v>0.03786629516272733</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4005607595956207</v>
+        <v>0.504353329783271</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.726992441744343</v>
+        <v>2.228486881028999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.506848079670476</v>
+        <v>5.529250605924858</v>
       </c>
       <c r="C14">
-        <v>0.7423645919551802</v>
+        <v>0.6896851996015982</v>
       </c>
       <c r="D14">
-        <v>0.004625149847980126</v>
+        <v>0.08947383802937736</v>
       </c>
       <c r="E14">
-        <v>0.02564172041068691</v>
+        <v>0.0410228598554081</v>
       </c>
       <c r="F14">
-        <v>3.597083831799324</v>
+        <v>0.8896680899824077</v>
       </c>
       <c r="G14">
-        <v>0.0007953302962961928</v>
+        <v>0.0007909650714287369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06941001572496219</v>
+        <v>0.03834563979121164</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3938818291590422</v>
+        <v>0.4960132474269017</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.691080607293898</v>
+        <v>2.212985519041609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.443624090654907</v>
+        <v>5.468204572654997</v>
       </c>
       <c r="C15">
-        <v>0.7336002724682942</v>
+        <v>0.6831595733964093</v>
       </c>
       <c r="D15">
-        <v>0.004545109729484409</v>
+        <v>0.08876006801625635</v>
       </c>
       <c r="E15">
-        <v>0.02563598224788421</v>
+        <v>0.04102444670445315</v>
       </c>
       <c r="F15">
-        <v>3.568425365576473</v>
+        <v>0.8855168224626766</v>
       </c>
       <c r="G15">
-        <v>0.0007964341859363768</v>
+        <v>0.000791548707691136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06943931247752388</v>
+        <v>0.03864162359777801</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3898071855153233</v>
+        <v>0.4909125059061807</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.669259372734231</v>
+        <v>2.203675922760908</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084687780865238</v>
+        <v>5.119300473373414</v>
       </c>
       <c r="C16">
-        <v>0.6837709359683402</v>
+        <v>0.6458338150151519</v>
       </c>
       <c r="D16">
-        <v>0.00410322892411763</v>
+        <v>0.08468997220554542</v>
       </c>
       <c r="E16">
-        <v>0.02561041527877617</v>
+        <v>0.04105594110524358</v>
       </c>
       <c r="F16">
-        <v>3.407488863145971</v>
+        <v>0.8626609907275906</v>
       </c>
       <c r="G16">
-        <v>0.0008027784723386424</v>
+        <v>0.0007949151341016596</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06964296520931867</v>
+        <v>0.04037352257779592</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3666952952566476</v>
+        <v>0.4617961437419353</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.546774007961019</v>
+        <v>2.153080595867351</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.867294111648221</v>
+        <v>4.906023526495858</v>
       </c>
       <c r="C17">
-        <v>0.653526150293203</v>
+        <v>0.622992469183373</v>
       </c>
       <c r="D17">
-        <v>0.003845863778834335</v>
+        <v>0.08221035568104895</v>
       </c>
       <c r="E17">
-        <v>0.02560107118943833</v>
+        <v>0.04109481852110974</v>
       </c>
       <c r="F17">
-        <v>3.311525678031018</v>
+        <v>0.8494417122849427</v>
       </c>
       <c r="G17">
-        <v>0.0008066894166698011</v>
+        <v>0.0007970004412261545</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06979861410640709</v>
+        <v>0.04146722770099931</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3527159800388091</v>
+        <v>0.4440299258780271</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.473784514972579</v>
+        <v>2.124406745249701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.743205827277563</v>
+        <v>4.783609426559906</v>
       </c>
       <c r="C18">
-        <v>0.6362382764052938</v>
+        <v>0.6098734441903275</v>
       </c>
       <c r="D18">
-        <v>0.003702398729427792</v>
+        <v>0.08079018072900368</v>
       </c>
       <c r="E18">
-        <v>0.02559795608759252</v>
+        <v>0.04112420010460305</v>
       </c>
       <c r="F18">
-        <v>3.257281530096861</v>
+        <v>0.8421212086078214</v>
       </c>
       <c r="G18">
-        <v>0.0008089468147538525</v>
+        <v>0.0007982074864945069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06989897356912778</v>
+        <v>0.04210753013303048</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3447435089126429</v>
+        <v>0.4338441687163623</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.432542178988939</v>
+        <v>2.108747628295873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.701347827639836</v>
+        <v>4.742204099272897</v>
       </c>
       <c r="C19">
-        <v>0.6304024861889275</v>
+        <v>0.6054345834970434</v>
       </c>
       <c r="D19">
-        <v>0.003654565366488782</v>
+        <v>0.08031034220432076</v>
       </c>
       <c r="E19">
-        <v>0.02559728303942777</v>
+        <v>0.04113533855496776</v>
       </c>
       <c r="F19">
-        <v>3.239072888813581</v>
+        <v>0.8396901028475696</v>
       </c>
       <c r="G19">
-        <v>0.0008097125801010054</v>
+        <v>0.0007986175042843293</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06993477332794029</v>
+        <v>0.04232623172097583</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3420553953885843</v>
+        <v>0.4304008877119401</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.418700566767782</v>
+        <v>2.103585556559722</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.890335915715468</v>
+        <v>4.928700083181866</v>
       </c>
       <c r="C20">
-        <v>0.6567343316778533</v>
+        <v>0.6254219851841469</v>
       </c>
       <c r="D20">
-        <v>0.003872778057228743</v>
+        <v>0.08247368375057107</v>
       </c>
       <c r="E20">
-        <v>0.02560183051152176</v>
+        <v>0.04108994969201163</v>
       </c>
       <c r="F20">
-        <v>3.321641243630779</v>
+        <v>0.8508193886254674</v>
       </c>
       <c r="G20">
-        <v>0.0008062722907529789</v>
+        <v>0.0007967776721109487</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06978091383047413</v>
+        <v>0.04134963294082272</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3541969468986537</v>
+        <v>0.4459177147170124</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.481476740782114</v>
+        <v>2.127372092101666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.537228473126618</v>
+        <v>5.55854111435707</v>
       </c>
       <c r="C21">
-        <v>0.7465747424429594</v>
+        <v>0.6928157339854408</v>
       </c>
       <c r="D21">
-        <v>0.004663847271233479</v>
+        <v>0.08981647955910432</v>
       </c>
       <c r="E21">
-        <v>0.02564460419946446</v>
+        <v>0.04102250139690966</v>
       </c>
       <c r="F21">
-        <v>3.610887144314432</v>
+        <v>0.8916756926277287</v>
       </c>
       <c r="G21">
-        <v>0.0007948012380248079</v>
+        <v>0.0007906855793493571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06939661738722691</v>
+        <v>0.03820434897215019</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3958401442955193</v>
+        <v>0.4984612926075442</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.70159182324511</v>
+        <v>2.217499785660067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.970237025888537</v>
+        <v>5.972989235144894</v>
       </c>
       <c r="C22">
-        <v>0.8064970277811483</v>
+        <v>0.7370754698349344</v>
       </c>
       <c r="D22">
-        <v>0.00523221526725326</v>
+        <v>0.09467586920283821</v>
       </c>
       <c r="E22">
-        <v>0.02569425897450195</v>
+        <v>0.04104456970678072</v>
       </c>
       <c r="F22">
-        <v>3.809850793474112</v>
+        <v>0.921156210859337</v>
       </c>
       <c r="G22">
-        <v>0.0007873532534745364</v>
+        <v>0.0007867667635886932</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06925202172226008</v>
+        <v>0.03625418130194102</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4237760786408273</v>
+        <v>0.533144420893862</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.853176704296672</v>
+        <v>2.284605419384462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.738104141556676</v>
+        <v>5.751506762241377</v>
       </c>
       <c r="C23">
-        <v>0.7743921788537875</v>
+        <v>0.7134312119389961</v>
       </c>
       <c r="D23">
-        <v>0.004923595667559511</v>
+        <v>0.09207644897837497</v>
       </c>
       <c r="E23">
-        <v>0.0256656885179094</v>
+        <v>0.04102655485297291</v>
       </c>
       <c r="F23">
-        <v>3.702675834959251</v>
+        <v>0.9051544674140217</v>
       </c>
       <c r="G23">
-        <v>0.0007913250267513425</v>
+        <v>0.000788852836059357</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06931891666834034</v>
+        <v>0.03728509733957974</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.408794338063899</v>
+        <v>0.5145994704056136</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.771505990361774</v>
+        <v>2.247999651585985</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.879915949349197</v>
+        <v>4.918447389381811</v>
       </c>
       <c r="C24">
-        <v>0.6552836031633262</v>
+        <v>0.6243235617364178</v>
       </c>
       <c r="D24">
-        <v>0.003860596214670942</v>
+        <v>0.08235461641498887</v>
       </c>
       <c r="E24">
-        <v>0.02560148020875808</v>
+        <v>0.04109212903065362</v>
       </c>
       <c r="F24">
-        <v>3.317065126355232</v>
+        <v>0.850195673568976</v>
       </c>
       <c r="G24">
-        <v>0.0008064608453204178</v>
+        <v>0.0007968783604979454</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06978888235920877</v>
+        <v>0.04140276171826507</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3535272023169256</v>
+        <v>0.4450641578392975</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.477996854013469</v>
+        <v>2.126028894829176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.989816271285747</v>
+        <v>4.029436152684355</v>
       </c>
       <c r="C25">
-        <v>0.5308365609415659</v>
+        <v>0.5288990840504084</v>
       </c>
       <c r="D25">
-        <v>0.002884266171579775</v>
+        <v>0.07209548654383013</v>
       </c>
       <c r="E25">
-        <v>0.0256179373798151</v>
+        <v>0.04142944758854838</v>
       </c>
       <c r="F25">
-        <v>2.936868578556329</v>
+        <v>0.8016015422670506</v>
       </c>
       <c r="G25">
-        <v>0.0008230997170841763</v>
+        <v>0.0008058295891078013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07070566822747182</v>
+        <v>0.04627109027212217</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2964657999189768</v>
+        <v>0.3712925723315692</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.189173634709107</v>
+        <v>2.025941972966052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.380471325593533</v>
+        <v>3.410700875377643</v>
       </c>
       <c r="C2">
-        <v>0.458993942347405</v>
+        <v>0.5080094380990943</v>
       </c>
       <c r="D2">
-        <v>0.06470351359848792</v>
+        <v>0.1064937839520113</v>
       </c>
       <c r="E2">
-        <v>0.04188940477610181</v>
+        <v>0.05826341245299282</v>
       </c>
       <c r="F2">
-        <v>0.7737582037959214</v>
+        <v>0.4905329440797459</v>
       </c>
       <c r="G2">
-        <v>0.0008127002152426669</v>
+        <v>0.2740282276902377</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002386437816015441</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05019714565715905</v>
+        <v>0.2588536104292984</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2167532470237887</v>
       </c>
       <c r="L2">
-        <v>0.317785087085781</v>
+        <v>0.06437400342122179</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3729973910704416</v>
       </c>
       <c r="O2">
-        <v>1.975555841067148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.071373945997223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.942993897584529</v>
+        <v>2.972179518271787</v>
       </c>
       <c r="C3">
-        <v>0.4117345097129999</v>
+        <v>0.4563676642873418</v>
       </c>
       <c r="D3">
-        <v>0.05977972977471779</v>
+        <v>0.09862164202714752</v>
       </c>
       <c r="E3">
-        <v>0.04232504686842464</v>
+        <v>0.05674529509953707</v>
       </c>
       <c r="F3">
-        <v>0.7592727633748311</v>
+        <v>0.4805837917293516</v>
       </c>
       <c r="G3">
-        <v>0.0008175432357842981</v>
+        <v>0.267923342523531</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0008548874875733414</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05305934154567282</v>
+        <v>0.2613945433987723</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2293617936126129</v>
       </c>
       <c r="L3">
-        <v>0.2819161288155954</v>
+        <v>0.06353274439238121</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3303426972611874</v>
       </c>
       <c r="O3">
-        <v>1.954251557099553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.063421079255704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.675185593221499</v>
+        <v>2.702533159398229</v>
       </c>
       <c r="C4">
-        <v>0.3827432431359625</v>
+        <v>0.4245988922210984</v>
       </c>
       <c r="D4">
-        <v>0.05679435175171221</v>
+        <v>0.09381051096393378</v>
       </c>
       <c r="E4">
-        <v>0.04265118474950125</v>
+        <v>0.05581330890959002</v>
       </c>
       <c r="F4">
-        <v>0.7523690192880821</v>
+        <v>0.4753276958665893</v>
       </c>
       <c r="G4">
-        <v>0.0008206126806734142</v>
+        <v>0.2648775097331111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001443718302632901</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05491256250680943</v>
+        <v>0.2634030496905737</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2377044719659231</v>
       </c>
       <c r="L4">
-        <v>0.2600532633992714</v>
+        <v>0.0629957199404102</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3041320165772845</v>
       </c>
       <c r="O4">
-        <v>1.946990084041772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.060957704522465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.566207911567233</v>
+        <v>2.592534986581256</v>
       </c>
       <c r="C5">
-        <v>0.3709316114523915</v>
+        <v>0.4116362308102453</v>
       </c>
       <c r="D5">
-        <v>0.05558670261627441</v>
+        <v>0.09185509888750687</v>
       </c>
       <c r="E5">
-        <v>0.04279848889883908</v>
+        <v>0.05543334497639929</v>
       </c>
       <c r="F5">
-        <v>0.7500321466980751</v>
+        <v>0.4733918848568237</v>
       </c>
       <c r="G5">
-        <v>0.0008218881070783305</v>
+        <v>0.263804855457721</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001733833804728135</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05569135176040918</v>
+        <v>0.2643306769775364</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2412503343266703</v>
       </c>
       <c r="L5">
-        <v>0.2511799412661446</v>
+        <v>0.06277159197324506</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2934435197375933</v>
       </c>
       <c r="O5">
-        <v>1.945422308255445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.060537543647939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.548120411142747</v>
+        <v>2.574262469257917</v>
       </c>
       <c r="C6">
-        <v>0.3689703402737905</v>
+        <v>0.4094827481605989</v>
       </c>
       <c r="D6">
-        <v>0.05538669514027106</v>
+        <v>0.09153070282392406</v>
       </c>
       <c r="E6">
-        <v>0.0428238085174435</v>
+        <v>0.05537023593330836</v>
       </c>
       <c r="F6">
-        <v>0.7496722090140864</v>
+        <v>0.4730826544347977</v>
       </c>
       <c r="G6">
-        <v>0.0008221013910704015</v>
+        <v>0.2636366900815617</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001784958005551229</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05582207931411887</v>
+        <v>0.2644911981540403</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2418478074042341</v>
       </c>
       <c r="L6">
-        <v>0.2497085803983055</v>
+        <v>0.06273405260455545</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2916681903017349</v>
       </c>
       <c r="O6">
-        <v>1.945243980670853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.06050232260985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.673715307425653</v>
+        <v>2.701050172286386</v>
       </c>
       <c r="C7">
-        <v>0.382583942163933</v>
+        <v>0.4244241423211292</v>
       </c>
       <c r="D7">
-        <v>0.05677802963481327</v>
+        <v>0.09378411928938135</v>
       </c>
       <c r="E7">
-        <v>0.04265311348617207</v>
+        <v>0.05580818554892275</v>
       </c>
       <c r="F7">
-        <v>0.7523356050782866</v>
+        <v>0.475300765176172</v>
       </c>
       <c r="G7">
-        <v>0.0008206297813229679</v>
+        <v>0.2648623716148037</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001447431375431796</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05492297068222518</v>
+        <v>0.2634151227309331</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2377517073722508</v>
       </c>
       <c r="L7">
-        <v>0.2599334547181513</v>
+        <v>0.0629927188493381</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3039879007677939</v>
       </c>
       <c r="O7">
-        <v>1.94696339936857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.060949706825099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229433362577538</v>
+        <v>3.259569752233404</v>
       </c>
       <c r="C8">
-        <v>0.4426909028970272</v>
+        <v>0.4902150010676394</v>
       </c>
       <c r="D8">
-        <v>0.0629975635565998</v>
+        <v>0.1037745286904155</v>
       </c>
       <c r="E8">
-        <v>0.04202722616021504</v>
+        <v>0.05773980750308461</v>
       </c>
       <c r="F8">
-        <v>0.76833564635497</v>
+        <v>0.4869203785716394</v>
       </c>
       <c r="G8">
-        <v>0.0008143505186208829</v>
+        <v>0.2717724533101276</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0004057564829356153</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05116382969847511</v>
+        <v>0.2596344574791445</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.22097289875264</v>
       </c>
       <c r="L8">
-        <v>0.3053813043886038</v>
+        <v>0.0640881069389817</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3582928938733119</v>
       </c>
       <c r="O8">
-        <v>1.966957726649724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.068114380840868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.327864058960358</v>
+        <v>4.352571537926394</v>
       </c>
       <c r="C9">
-        <v>0.5609726870695795</v>
+        <v>0.6188284695216453</v>
       </c>
       <c r="D9">
-        <v>0.07552402570037486</v>
+        <v>0.1235667853500644</v>
       </c>
       <c r="E9">
-        <v>0.04128182452264006</v>
+        <v>0.06153878952176939</v>
       </c>
       <c r="F9">
-        <v>0.816658061684862</v>
+        <v>0.5168647251025078</v>
       </c>
       <c r="G9">
-        <v>0.0008027725763411598</v>
+        <v>0.2912799842559934</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001615163428966282</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0445765092552719</v>
+        <v>0.2559471623584031</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.193069580454214</v>
       </c>
       <c r="L9">
-        <v>0.3960009757933562</v>
+        <v>0.06607996173042197</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4647358008928393</v>
       </c>
       <c r="O9">
-        <v>2.055797092854249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.102528192829013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.143673400474199</v>
+        <v>5.155117904604992</v>
       </c>
       <c r="C10">
-        <v>0.6484428614038222</v>
+        <v>0.7185176041237185</v>
       </c>
       <c r="D10">
-        <v>0.08497375335125668</v>
+        <v>0.1363008040687248</v>
       </c>
       <c r="E10">
-        <v>0.04105246813099761</v>
+        <v>0.0628427448915847</v>
       </c>
       <c r="F10">
-        <v>0.8642085816391756</v>
+        <v>0.5356826545812865</v>
       </c>
       <c r="G10">
-        <v>0.0007946782029791632</v>
+        <v>0.3043842821284457</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001374969267972759</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04025026301273815</v>
+        <v>0.2530097374610634</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1735545526243492</v>
       </c>
       <c r="L10">
-        <v>0.4638280138666602</v>
+        <v>0.06719098716955418</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5310965601058228</v>
       </c>
       <c r="O10">
-        <v>2.156467952903824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.124687017108343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.517572974525535</v>
+        <v>5.516447021089277</v>
       </c>
       <c r="C11">
-        <v>0.6884370131781168</v>
+        <v>0.8123370907676986</v>
       </c>
       <c r="D11">
-        <v>0.08933726277485476</v>
+        <v>0.1254282647854339</v>
       </c>
       <c r="E11">
-        <v>0.04102307538696337</v>
+        <v>0.0528503733658976</v>
       </c>
       <c r="F11">
-        <v>0.8888705399942722</v>
+        <v>0.4768890667158701</v>
       </c>
       <c r="G11">
-        <v>0.0007910765977970062</v>
+        <v>0.2658017066224758</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02007247756074193</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03840210081430406</v>
+        <v>0.2290593526782914</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1468046021811453</v>
       </c>
       <c r="L11">
-        <v>0.4950373716359167</v>
+        <v>0.07111278647847818</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4609710632601178</v>
       </c>
       <c r="O11">
-        <v>2.211194314635918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9929510155172068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.659636021054723</v>
+        <v>5.651752829537145</v>
       </c>
       <c r="C12">
-        <v>0.7036180275565016</v>
+        <v>0.8735939395559171</v>
       </c>
       <c r="D12">
-        <v>0.090999912361724</v>
+        <v>0.1140058662038186</v>
       </c>
       <c r="E12">
-        <v>0.04102324710282268</v>
+        <v>0.04751185146754811</v>
       </c>
       <c r="F12">
-        <v>0.8986828144908827</v>
+        <v>0.4253052721145707</v>
       </c>
       <c r="G12">
-        <v>0.0007897235759381473</v>
+        <v>0.2319434419449493</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05867726064149537</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03772026414358187</v>
+        <v>0.2100127568991326</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1308099071206907</v>
       </c>
       <c r="L12">
-        <v>0.5069138503600215</v>
+        <v>0.08198317631458352</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3926611088169523</v>
       </c>
       <c r="O12">
-        <v>2.233314992338421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8813604899763732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.629017793265689</v>
+        <v>5.61954800518447</v>
       </c>
       <c r="C13">
-        <v>0.700346803668225</v>
+        <v>0.9126198786005659</v>
       </c>
       <c r="D13">
-        <v>0.09064135738336176</v>
+        <v>0.1015578265910193</v>
       </c>
       <c r="E13">
-        <v>0.04102269867475705</v>
+        <v>0.04538442636697027</v>
       </c>
       <c r="F13">
-        <v>0.8965478846909178</v>
+        <v>0.3760879951150287</v>
       </c>
       <c r="G13">
-        <v>0.0007900145045032717</v>
+        <v>0.1995314959010628</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1141786670116147</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03786629516272733</v>
+        <v>0.1934812515712494</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1217849163666536</v>
       </c>
       <c r="L13">
-        <v>0.504353329783271</v>
+        <v>0.09852282426506065</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3222537567406505</v>
       </c>
       <c r="O13">
-        <v>2.228486881028999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.777999243320167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.529250605924858</v>
+        <v>5.521097692866704</v>
       </c>
       <c r="C14">
-        <v>0.6896851996015982</v>
+        <v>0.9298643208969963</v>
       </c>
       <c r="D14">
-        <v>0.08947383802937736</v>
+        <v>0.09252452225592833</v>
       </c>
       <c r="E14">
-        <v>0.0410228598554081</v>
+        <v>0.04577356054398996</v>
       </c>
       <c r="F14">
-        <v>0.8896680899824077</v>
+        <v>0.3432901793822722</v>
       </c>
       <c r="G14">
-        <v>0.0007909650714287369</v>
+        <v>0.177903968279189</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632925769412026</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03834563979121164</v>
+        <v>0.1832191656210398</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.118943898776728</v>
       </c>
       <c r="L14">
-        <v>0.4960132474269017</v>
+        <v>0.1134880087595533</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2731796330725018</v>
       </c>
       <c r="O14">
-        <v>2.212985519041609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7105906060737794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.468204572654997</v>
+        <v>5.461385001135568</v>
       </c>
       <c r="C15">
-        <v>0.6831595733964093</v>
+        <v>0.9287932431411434</v>
       </c>
       <c r="D15">
-        <v>0.08876006801625635</v>
+        <v>0.0900692705095949</v>
       </c>
       <c r="E15">
-        <v>0.04102444670445315</v>
+        <v>0.04610335285295797</v>
       </c>
       <c r="F15">
-        <v>0.8855168224626766</v>
+        <v>0.3355819888200386</v>
       </c>
       <c r="G15">
-        <v>0.000791548707691136</v>
+        <v>0.1727700030951311</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1756919649627946</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03864162359777801</v>
+        <v>0.1811884905059387</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1193823213258485</v>
       </c>
       <c r="L15">
-        <v>0.4909125059061807</v>
+        <v>0.1172585666210821</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2602759206435366</v>
       </c>
       <c r="O15">
-        <v>2.203675922760908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6954143904990389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119300473373414</v>
+        <v>5.121224171761241</v>
       </c>
       <c r="C16">
-        <v>0.6458338150151519</v>
+        <v>0.8760950605829976</v>
       </c>
       <c r="D16">
-        <v>0.08468997220554542</v>
+        <v>0.08741945877424229</v>
       </c>
       <c r="E16">
-        <v>0.04105594110524358</v>
+        <v>0.04593417065611316</v>
       </c>
       <c r="F16">
-        <v>0.8626609907275906</v>
+        <v>0.3373471715931871</v>
       </c>
       <c r="G16">
-        <v>0.0007949151341016596</v>
+        <v>0.1733588711607723</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623940678681777</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04037352257779592</v>
+        <v>0.1854842370501686</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1286231389177628</v>
       </c>
       <c r="L16">
-        <v>0.4617961437419353</v>
+        <v>0.1127088864976074</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2481529675893199</v>
       </c>
       <c r="O16">
-        <v>2.153080595867351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7054366933518139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.906023526495858</v>
+        <v>4.913334154415224</v>
       </c>
       <c r="C17">
-        <v>0.622992469183373</v>
+        <v>0.8266945435191246</v>
       </c>
       <c r="D17">
-        <v>0.08221035568104895</v>
+        <v>0.09009353548984222</v>
       </c>
       <c r="E17">
-        <v>0.04109481852110974</v>
+        <v>0.04531664969572535</v>
       </c>
       <c r="F17">
-        <v>0.8494417122849427</v>
+        <v>0.3560237676728093</v>
       </c>
       <c r="G17">
-        <v>0.0007970004412261545</v>
+        <v>0.1852787310877204</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243419776737369</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04146722770099931</v>
+        <v>0.1942653132826422</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1372315574204528</v>
       </c>
       <c r="L17">
-        <v>0.4440299258780271</v>
+        <v>0.1007433945920333</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2640873197786391</v>
       </c>
       <c r="O17">
-        <v>2.124406745249701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7489616880652648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.783609426559906</v>
+        <v>4.794917589538443</v>
       </c>
       <c r="C18">
-        <v>0.6098734441903275</v>
+        <v>0.7756644338076057</v>
       </c>
       <c r="D18">
-        <v>0.08079018072900368</v>
+        <v>0.09793142965347812</v>
       </c>
       <c r="E18">
-        <v>0.04112420010460305</v>
+        <v>0.04588473850667446</v>
       </c>
       <c r="F18">
-        <v>0.8421212086078214</v>
+        <v>0.392497215776956</v>
       </c>
       <c r="G18">
-        <v>0.0007982074864945069</v>
+        <v>0.2090781432327091</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07145741007387585</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04210753013303048</v>
+        <v>0.2082010147079529</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1474302118769142</v>
       </c>
       <c r="L18">
-        <v>0.4338441687163623</v>
+        <v>0.08469771388720204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3087367170021338</v>
       </c>
       <c r="O18">
-        <v>2.108747628295873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8285298371264531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.742204099272897</v>
+        <v>4.756677778595133</v>
       </c>
       <c r="C19">
-        <v>0.6054345834970434</v>
+        <v>0.7285053615680681</v>
       </c>
       <c r="D19">
-        <v>0.08031034220432076</v>
+        <v>0.1098485401335054</v>
       </c>
       <c r="E19">
-        <v>0.04113533855496776</v>
+        <v>0.0497951630036475</v>
       </c>
       <c r="F19">
-        <v>0.8396901028475696</v>
+        <v>0.4428117321667102</v>
       </c>
       <c r="G19">
-        <v>0.0007986175042843293</v>
+        <v>0.2422561387190711</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0263552246759744</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04232623172097583</v>
+        <v>0.2259152937348219</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1600479121571503</v>
       </c>
       <c r="L19">
-        <v>0.4304008877119401</v>
+        <v>0.07183140941643096</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.377792594800141</v>
       </c>
       <c r="O19">
-        <v>2.103585556559722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.935951815629835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.928700083181866</v>
+        <v>4.944328662027829</v>
       </c>
       <c r="C20">
-        <v>0.6254219851841469</v>
+        <v>0.6925496873297448</v>
       </c>
       <c r="D20">
-        <v>0.08247368375057107</v>
+        <v>0.132865422537094</v>
       </c>
       <c r="E20">
-        <v>0.04108994969201163</v>
+        <v>0.06243210552690392</v>
       </c>
       <c r="F20">
-        <v>0.8508193886254674</v>
+        <v>0.530044133885518</v>
       </c>
       <c r="G20">
-        <v>0.0007967776721109487</v>
+        <v>0.3004078886449477</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0009459761993104721</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04134963294082272</v>
+        <v>0.2534829437286135</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1783245170182663</v>
       </c>
       <c r="L20">
-        <v>0.4459177147170124</v>
+        <v>0.06688140433741641</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5131710043678623</v>
       </c>
       <c r="O20">
-        <v>2.127372092101666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.117111609341393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.55854111435707</v>
+        <v>5.561230056243005</v>
       </c>
       <c r="C21">
-        <v>0.6928157339854408</v>
+        <v>0.7608398287711395</v>
       </c>
       <c r="D21">
-        <v>0.08981647955910432</v>
+        <v>0.1457339205325638</v>
       </c>
       <c r="E21">
-        <v>0.04102250139690966</v>
+        <v>0.06577986155644844</v>
       </c>
       <c r="F21">
-        <v>0.8916756926277287</v>
+        <v>0.5587697609740516</v>
       </c>
       <c r="G21">
-        <v>0.0007906855793493571</v>
+        <v>0.3203331968972378</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002187594963748096</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03820434897215019</v>
+        <v>0.2563491216635327</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1682392273325064</v>
       </c>
       <c r="L21">
-        <v>0.4984612926075442</v>
+        <v>0.06813388024399844</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5827069242574936</v>
       </c>
       <c r="O21">
-        <v>2.217499785660067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.165752550949833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.972989235144894</v>
+        <v>5.9646406247752</v>
       </c>
       <c r="C22">
-        <v>0.7370754698349344</v>
+        <v>0.8081897443719868</v>
       </c>
       <c r="D22">
-        <v>0.09467586920283821</v>
+        <v>0.1531854742161585</v>
       </c>
       <c r="E22">
-        <v>0.04104456970678072</v>
+        <v>0.0672062135881486</v>
       </c>
       <c r="F22">
-        <v>0.921156210859337</v>
+        <v>0.5744951516756345</v>
       </c>
       <c r="G22">
-        <v>0.0007867667635886932</v>
+        <v>0.3315414336993001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003336191191134263</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03625418130194102</v>
+        <v>0.2573614124143546</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1611455351474405</v>
       </c>
       <c r="L22">
-        <v>0.533144420893862</v>
+        <v>0.06879631849412338</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6221430502654357</v>
       </c>
       <c r="O22">
-        <v>2.284605419384462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.19188479927854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.751506762241377</v>
+        <v>5.74928046680111</v>
       </c>
       <c r="C23">
-        <v>0.7134312119389961</v>
+        <v>0.7829150724667215</v>
       </c>
       <c r="D23">
-        <v>0.09207644897837497</v>
+        <v>0.1492044744757521</v>
       </c>
       <c r="E23">
-        <v>0.04102655485297291</v>
+        <v>0.06644405060866632</v>
       </c>
       <c r="F23">
-        <v>0.9051544674140217</v>
+        <v>0.5659991549728218</v>
       </c>
       <c r="G23">
-        <v>0.000788852836059357</v>
+        <v>0.3254692560020374</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002695078123341688</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03728509733957974</v>
+        <v>0.2567701858172029</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1648630594586109</v>
       </c>
       <c r="L23">
-        <v>0.5145994704056136</v>
+        <v>0.06844384451553862</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6010863522814986</v>
       </c>
       <c r="O23">
-        <v>2.247999651585985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.177640419102943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.918447389381811</v>
+        <v>4.934622100758304</v>
       </c>
       <c r="C24">
-        <v>0.6243235617364178</v>
+        <v>0.6872440619858651</v>
       </c>
       <c r="D24">
-        <v>0.08235461641498887</v>
+        <v>0.134209942894131</v>
       </c>
       <c r="E24">
-        <v>0.04109212903065362</v>
+        <v>0.06357532364707197</v>
       </c>
       <c r="F24">
-        <v>0.850195673568976</v>
+        <v>0.5360165096250782</v>
       </c>
       <c r="G24">
-        <v>0.0007968783604979454</v>
+        <v>0.3043837461992069</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0008614833104559905</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04140276171826507</v>
+        <v>0.2556199556449386</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1804065909843029</v>
       </c>
       <c r="L24">
-        <v>0.4450641578392975</v>
+        <v>0.0670839809541825</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5215122904512128</v>
       </c>
       <c r="O24">
-        <v>2.126028894829176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.130011111690095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.029436152684355</v>
+        <v>4.056991472234188</v>
       </c>
       <c r="C25">
-        <v>0.5288990840504084</v>
+        <v>0.584065557517448</v>
       </c>
       <c r="D25">
-        <v>0.07209548654383013</v>
+        <v>0.1181873580014781</v>
       </c>
       <c r="E25">
-        <v>0.04142944758854838</v>
+        <v>0.06050841249135885</v>
       </c>
       <c r="F25">
-        <v>0.8016015422670506</v>
+        <v>0.5079404495232467</v>
       </c>
       <c r="G25">
-        <v>0.0008058295891078013</v>
+        <v>0.2853093344363131</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.644331331229765E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04627109027212217</v>
+        <v>0.2565211606756108</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2000495102940505</v>
       </c>
       <c r="L25">
-        <v>0.3712925723315692</v>
+        <v>0.0655569026882542</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4359280012960625</v>
       </c>
       <c r="O25">
-        <v>2.025941972966052</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.090868837566163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.410700875377643</v>
+        <v>3.415755389495871</v>
       </c>
       <c r="C2">
-        <v>0.5080094380990943</v>
+        <v>0.5153465576929079</v>
       </c>
       <c r="D2">
-        <v>0.1064937839520113</v>
+        <v>0.1068551538154026</v>
       </c>
       <c r="E2">
-        <v>0.05826341245299282</v>
+        <v>0.05693932365179855</v>
       </c>
       <c r="F2">
-        <v>0.4905329440797459</v>
+        <v>0.4756188215305528</v>
       </c>
       <c r="G2">
-        <v>0.2740282276902377</v>
+        <v>0.2446801689708948</v>
       </c>
       <c r="H2">
-        <v>0.0002386437816015441</v>
+        <v>0.0001508316324264625</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2588536104292984</v>
+        <v>0.2873899628424823</v>
       </c>
       <c r="K2">
-        <v>0.2167532470237887</v>
+        <v>0.2038458580814293</v>
       </c>
       <c r="L2">
-        <v>0.06437400342122179</v>
+        <v>0.1168297010907704</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04570418600789772</v>
       </c>
       <c r="N2">
-        <v>0.3729973910704416</v>
+        <v>0.06253261581060365</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3832806161520494</v>
       </c>
       <c r="Q2">
-        <v>1.071373945997223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.031570931294468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972179518271787</v>
+        <v>2.97777630902533</v>
       </c>
       <c r="C3">
-        <v>0.4563676642873418</v>
+        <v>0.4563425554415801</v>
       </c>
       <c r="D3">
-        <v>0.09862164202714752</v>
+        <v>0.09903534197763975</v>
       </c>
       <c r="E3">
-        <v>0.05674529509953707</v>
+        <v>0.05563795940511707</v>
       </c>
       <c r="F3">
-        <v>0.4805837917293516</v>
+        <v>0.4672050384349404</v>
       </c>
       <c r="G3">
-        <v>0.267923342523531</v>
+        <v>0.2403471844968266</v>
       </c>
       <c r="H3">
-        <v>0.0008548874875733414</v>
+        <v>0.0006281418815946571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2613945433987723</v>
+        <v>0.2880927305971426</v>
       </c>
       <c r="K3">
-        <v>0.2293617936126129</v>
+        <v>0.2158819991833045</v>
       </c>
       <c r="L3">
-        <v>0.06353274439238121</v>
+        <v>0.123173314527719</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04945191907125857</v>
       </c>
       <c r="N3">
-        <v>0.3303426972611874</v>
+        <v>0.06171742845944456</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3392053308389933</v>
       </c>
       <c r="Q3">
-        <v>1.063421079255704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.026989757782403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.702533159398229</v>
+        <v>2.708321827523946</v>
       </c>
       <c r="C4">
-        <v>0.4245988922210984</v>
+        <v>0.4201847835015826</v>
       </c>
       <c r="D4">
-        <v>0.09381051096393378</v>
+        <v>0.09426283717340311</v>
       </c>
       <c r="E4">
-        <v>0.05581330890959002</v>
+        <v>0.05483765827176867</v>
       </c>
       <c r="F4">
-        <v>0.4753276958665893</v>
+        <v>0.4627430617223283</v>
       </c>
       <c r="G4">
-        <v>0.2648775097331111</v>
+        <v>0.238362418271727</v>
       </c>
       <c r="H4">
-        <v>0.001443718302632901</v>
+        <v>0.001101119130784034</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2634030496905737</v>
+        <v>0.2887661761417206</v>
       </c>
       <c r="K4">
-        <v>0.2377044719659231</v>
+        <v>0.2237695041955856</v>
       </c>
       <c r="L4">
-        <v>0.0629957199404102</v>
+        <v>0.1273794694348958</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05232919246767986</v>
       </c>
       <c r="N4">
-        <v>0.3041320165772845</v>
+        <v>0.06119845721670736</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3121638526463784</v>
       </c>
       <c r="Q4">
-        <v>1.060957704522465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.026149407449068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.592534986581256</v>
+        <v>2.598370296103781</v>
       </c>
       <c r="C5">
-        <v>0.4116362308102453</v>
+        <v>0.4054670263242883</v>
       </c>
       <c r="D5">
-        <v>0.09185509888750687</v>
+        <v>0.0923248639697718</v>
       </c>
       <c r="E5">
-        <v>0.05543334497639929</v>
+        <v>0.05451103757017162</v>
       </c>
       <c r="F5">
-        <v>0.4733918848568237</v>
+        <v>0.4610946575650132</v>
       </c>
       <c r="G5">
-        <v>0.263804855457721</v>
+        <v>0.2377150645680928</v>
       </c>
       <c r="H5">
-        <v>0.001733833804728135</v>
+        <v>0.00133675796983479</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2643306769775364</v>
+        <v>0.2890996748139614</v>
       </c>
       <c r="K5">
-        <v>0.2412503343266703</v>
+        <v>0.2271047730622016</v>
       </c>
       <c r="L5">
-        <v>0.06277159197324506</v>
+        <v>0.1291717458485255</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05364357652366092</v>
       </c>
       <c r="N5">
-        <v>0.2934435197375933</v>
+        <v>0.06098222112121798</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3011476560047441</v>
       </c>
       <c r="Q5">
-        <v>1.060537543647939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.026282004096345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.574262469257917</v>
+        <v>2.580103729600467</v>
       </c>
       <c r="C6">
-        <v>0.4094827481605989</v>
+        <v>0.4030241440657676</v>
       </c>
       <c r="D6">
-        <v>0.09153070282392406</v>
+        <v>0.09200346803373094</v>
       </c>
       <c r="E6">
-        <v>0.05537023593330836</v>
+        <v>0.05445676776980157</v>
       </c>
       <c r="F6">
-        <v>0.4730826544347977</v>
+        <v>0.4608309971103211</v>
       </c>
       <c r="G6">
-        <v>0.2636366900815617</v>
+        <v>0.2376170817609022</v>
       </c>
       <c r="H6">
-        <v>0.001784958005551229</v>
+        <v>0.001378409352855048</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2644911981540403</v>
+        <v>0.2891585686146101</v>
       </c>
       <c r="K6">
-        <v>0.2418478074042341</v>
+        <v>0.2276657884898814</v>
       </c>
       <c r="L6">
-        <v>0.06273405260455545</v>
+        <v>0.1294740773617971</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05387031197219905</v>
       </c>
       <c r="N6">
-        <v>0.2916681903017349</v>
+        <v>0.06094602510987029</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2993185804054264</v>
       </c>
       <c r="Q6">
-        <v>1.06050232260985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.026332114349572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.701050172286386</v>
+        <v>2.706810712222534</v>
       </c>
       <c r="C7">
-        <v>0.4244241423211292</v>
+        <v>0.4196026831654933</v>
       </c>
       <c r="D7">
-        <v>0.09378411928938135</v>
+        <v>0.09436726137486318</v>
       </c>
       <c r="E7">
-        <v>0.05580818554892275</v>
+        <v>0.05484278147196964</v>
       </c>
       <c r="F7">
-        <v>0.475300765176172</v>
+        <v>0.4619904284545555</v>
       </c>
       <c r="G7">
-        <v>0.2648623716148037</v>
+        <v>0.2405006032815606</v>
       </c>
       <c r="H7">
-        <v>0.001447431375431796</v>
+        <v>0.001106513167111411</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2634151227309331</v>
+        <v>0.2854301059348927</v>
       </c>
       <c r="K7">
-        <v>0.2377517073722508</v>
+        <v>0.2235861838401707</v>
       </c>
       <c r="L7">
-        <v>0.0629927188493381</v>
+        <v>0.1272650089981173</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05231055317214794</v>
       </c>
       <c r="N7">
-        <v>0.3039879007677939</v>
+        <v>0.06118081497658917</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3119892446099897</v>
       </c>
       <c r="Q7">
-        <v>1.060949706825099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.024019114458468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.259569752233404</v>
+        <v>3.264738565011385</v>
       </c>
       <c r="C8">
-        <v>0.4902150010676394</v>
+        <v>0.4936960626943687</v>
       </c>
       <c r="D8">
-        <v>0.1037745286904155</v>
+        <v>0.104591514363932</v>
       </c>
       <c r="E8">
-        <v>0.05773980750308461</v>
+        <v>0.05652446026008207</v>
       </c>
       <c r="F8">
-        <v>0.4869203785716394</v>
+        <v>0.4701595516001547</v>
       </c>
       <c r="G8">
-        <v>0.2717724533101276</v>
+        <v>0.2502256606490931</v>
       </c>
       <c r="H8">
-        <v>0.0004057564829356153</v>
+        <v>0.0002803167014067132</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2596344574791445</v>
+        <v>0.2767720305302106</v>
       </c>
       <c r="K8">
-        <v>0.22097289875264</v>
+        <v>0.2071650375438878</v>
       </c>
       <c r="L8">
-        <v>0.0640881069389817</v>
+        <v>0.1185658889013208</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04670671649675651</v>
       </c>
       <c r="N8">
-        <v>0.3582928938733119</v>
+        <v>0.06220997605897249</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3679902760336944</v>
       </c>
       <c r="Q8">
-        <v>1.068114380840868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.022557247303496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.352571537926394</v>
+        <v>4.355373298387406</v>
       </c>
       <c r="C9">
-        <v>0.6188284695216453</v>
+        <v>0.6410066513564914</v>
       </c>
       <c r="D9">
-        <v>0.1235667853500644</v>
+        <v>0.1244148984057958</v>
       </c>
       <c r="E9">
-        <v>0.06153878952176939</v>
+        <v>0.05978562054498582</v>
       </c>
       <c r="F9">
-        <v>0.5168647251025078</v>
+        <v>0.4947528657192493</v>
       </c>
       <c r="G9">
-        <v>0.2912799842559934</v>
+        <v>0.2671440818082971</v>
       </c>
       <c r="H9">
-        <v>0.0001615163428966282</v>
+        <v>0.0001868310306414322</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2559471623584031</v>
+        <v>0.2735574733147459</v>
       </c>
       <c r="K9">
-        <v>0.193069580454214</v>
+        <v>0.1799225016508306</v>
       </c>
       <c r="L9">
-        <v>0.06607996173042197</v>
+        <v>0.1044859469128845</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04055468785215588</v>
       </c>
       <c r="N9">
-        <v>0.4647358008928393</v>
+        <v>0.06414068660159356</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4781616776018041</v>
       </c>
       <c r="Q9">
-        <v>1.102528192829013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.044054989043687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.155117904604992</v>
+        <v>5.154935048257073</v>
       </c>
       <c r="C10">
-        <v>0.7185176041237185</v>
+        <v>0.7517822353447343</v>
       </c>
       <c r="D10">
-        <v>0.1363008040687248</v>
+        <v>0.1379492124854238</v>
       </c>
       <c r="E10">
-        <v>0.0628427448915847</v>
+        <v>0.06082328259468994</v>
       </c>
       <c r="F10">
-        <v>0.5356826545812865</v>
+        <v>0.5054786863055298</v>
       </c>
       <c r="G10">
-        <v>0.3043842821284457</v>
+        <v>0.2917621739453438</v>
       </c>
       <c r="H10">
-        <v>0.001374969267972759</v>
+        <v>0.001314275020950717</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2530097374610634</v>
+        <v>0.2527890171753882</v>
       </c>
       <c r="K10">
-        <v>0.1735545526243492</v>
+        <v>0.1596863762592946</v>
       </c>
       <c r="L10">
-        <v>0.06719098716955418</v>
+        <v>0.09459908868630329</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03785448862327279</v>
       </c>
       <c r="N10">
-        <v>0.5310965601058228</v>
+        <v>0.06530659804731176</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5467438939903957</v>
       </c>
       <c r="Q10">
-        <v>1.124687017108343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.044368169421006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.516447021089277</v>
+        <v>5.514687923263466</v>
       </c>
       <c r="C11">
-        <v>0.8123370907676986</v>
+        <v>0.8380415041985998</v>
       </c>
       <c r="D11">
-        <v>0.1254282647854339</v>
+        <v>0.1283265044954049</v>
       </c>
       <c r="E11">
-        <v>0.0528503733658976</v>
+        <v>0.05130064817648439</v>
       </c>
       <c r="F11">
-        <v>0.4768890667158701</v>
+        <v>0.4437154925546665</v>
       </c>
       <c r="G11">
-        <v>0.2658017066224758</v>
+        <v>0.2839580215357884</v>
       </c>
       <c r="H11">
-        <v>0.02007247756074193</v>
+        <v>0.01994893165593581</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2290593526782914</v>
+        <v>0.203392868695218</v>
       </c>
       <c r="K11">
-        <v>0.1468046021811453</v>
+        <v>0.1355734012298946</v>
       </c>
       <c r="L11">
-        <v>0.07111278647847818</v>
+        <v>0.08562030156287603</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03012719752966575</v>
       </c>
       <c r="N11">
-        <v>0.4609710632601178</v>
+        <v>0.07038648458752839</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4731120832264395</v>
       </c>
       <c r="Q11">
-        <v>0.9929510155172068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9032619194276919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.651752829537145</v>
+        <v>5.649498566920442</v>
       </c>
       <c r="C12">
-        <v>0.8735939395559171</v>
+        <v>0.8910365762880019</v>
       </c>
       <c r="D12">
-        <v>0.1140058662038186</v>
+        <v>0.1172042686852421</v>
       </c>
       <c r="E12">
-        <v>0.04751185146754811</v>
+        <v>0.04620731676189349</v>
       </c>
       <c r="F12">
-        <v>0.4253052721145707</v>
+        <v>0.3942043099990329</v>
       </c>
       <c r="G12">
-        <v>0.2319434419449493</v>
+        <v>0.2636303839181835</v>
       </c>
       <c r="H12">
-        <v>0.05867726064149537</v>
+        <v>0.05853935044887493</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2100127568991326</v>
+        <v>0.1806262952979019</v>
       </c>
       <c r="K12">
-        <v>0.1308099071206907</v>
+        <v>0.1226521948758146</v>
       </c>
       <c r="L12">
-        <v>0.08198317631458352</v>
+        <v>0.08154601556492724</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02499041106010846</v>
       </c>
       <c r="N12">
-        <v>0.3926611088169523</v>
+        <v>0.08198862602705859</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.401782271678286</v>
       </c>
       <c r="Q12">
-        <v>0.8813604899763732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7967911222294788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.61954800518447</v>
+        <v>5.617753474115659</v>
       </c>
       <c r="C13">
-        <v>0.9126198786005659</v>
+        <v>0.9221207269326328</v>
       </c>
       <c r="D13">
-        <v>0.1015578265910193</v>
+        <v>0.1041437245895196</v>
       </c>
       <c r="E13">
-        <v>0.04538442636697027</v>
+        <v>0.04421939854585077</v>
       </c>
       <c r="F13">
-        <v>0.3760879951150287</v>
+        <v>0.3517867775306129</v>
       </c>
       <c r="G13">
-        <v>0.1995314959010628</v>
+        <v>0.2279168050116738</v>
       </c>
       <c r="H13">
-        <v>0.1141786670116147</v>
+        <v>0.1140678196003932</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1934812515712494</v>
+        <v>0.1743259455572002</v>
       </c>
       <c r="K13">
-        <v>0.1217849163666536</v>
+        <v>0.116823335712505</v>
       </c>
       <c r="L13">
-        <v>0.09852282426506065</v>
+        <v>0.08008106183406438</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02174176131583749</v>
       </c>
       <c r="N13">
-        <v>0.3222537567406505</v>
+        <v>0.09885554568667487</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3286555612760083</v>
       </c>
       <c r="Q13">
-        <v>0.777999243320167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7119940970274143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.521097692866704</v>
+        <v>5.520025870005611</v>
       </c>
       <c r="C14">
-        <v>0.9298643208969963</v>
+        <v>0.933933036982836</v>
       </c>
       <c r="D14">
-        <v>0.09252452225592833</v>
+        <v>0.09436875123283528</v>
       </c>
       <c r="E14">
-        <v>0.04577356054398996</v>
+        <v>0.04467971361383016</v>
       </c>
       <c r="F14">
-        <v>0.3432901793822722</v>
+        <v>0.3252563754925148</v>
       </c>
       <c r="G14">
-        <v>0.177903968279189</v>
+        <v>0.1978706357649145</v>
       </c>
       <c r="H14">
-        <v>0.1632925769412026</v>
+        <v>0.1632138814588302</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1832191656210398</v>
+        <v>0.1754662617295537</v>
       </c>
       <c r="K14">
-        <v>0.118943898776728</v>
+        <v>0.1158408232740828</v>
       </c>
       <c r="L14">
-        <v>0.1134880087595533</v>
+        <v>0.07999900820854844</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02048548669002859</v>
       </c>
       <c r="N14">
-        <v>0.2731796330725018</v>
+        <v>0.1137688933723595</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2778821306255566</v>
       </c>
       <c r="Q14">
-        <v>0.7105906060737794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.661861598674534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.461385001135568</v>
+        <v>5.460677452740299</v>
       </c>
       <c r="C15">
-        <v>0.9287932431411434</v>
+        <v>0.9316780985959667</v>
       </c>
       <c r="D15">
-        <v>0.0900692705095949</v>
+        <v>0.09160476042188748</v>
       </c>
       <c r="E15">
-        <v>0.04610335285295797</v>
+        <v>0.04503777362672601</v>
       </c>
       <c r="F15">
-        <v>0.3355819888200386</v>
+        <v>0.3197641973003087</v>
       </c>
       <c r="G15">
-        <v>0.1727700030951311</v>
+        <v>0.1883144045657232</v>
       </c>
       <c r="H15">
-        <v>0.1756919649627946</v>
+        <v>0.1756279977381183</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1811884905059387</v>
+        <v>0.1781560854169797</v>
       </c>
       <c r="K15">
-        <v>0.1193823213258485</v>
+        <v>0.1166362489528097</v>
       </c>
       <c r="L15">
-        <v>0.1172585666210821</v>
+        <v>0.08026096113848458</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0205061608585182</v>
       </c>
       <c r="N15">
-        <v>0.2602759206435366</v>
+        <v>0.1174602975887424</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2645909882895126</v>
       </c>
       <c r="Q15">
-        <v>0.6954143904990389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6528403781589134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.121224171761241</v>
+        <v>5.122216758381171</v>
       </c>
       <c r="C16">
-        <v>0.8760950605829976</v>
+        <v>0.8800385104605937</v>
       </c>
       <c r="D16">
-        <v>0.08741945877424229</v>
+        <v>0.08785824302512424</v>
       </c>
       <c r="E16">
-        <v>0.04593417065611316</v>
+        <v>0.04500303368984682</v>
       </c>
       <c r="F16">
-        <v>0.3373471715931871</v>
+        <v>0.3278053660072118</v>
       </c>
       <c r="G16">
-        <v>0.1733588711607723</v>
+        <v>0.1692508141654301</v>
       </c>
       <c r="H16">
-        <v>0.1623940678681777</v>
+        <v>0.1623859822459366</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1854842370501686</v>
+        <v>0.201877053343047</v>
       </c>
       <c r="K16">
-        <v>0.1286231389177628</v>
+        <v>0.1255721482721379</v>
       </c>
       <c r="L16">
-        <v>0.1127088864976074</v>
+        <v>0.08287783738379378</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02309168254719962</v>
       </c>
       <c r="N16">
-        <v>0.2481529675893199</v>
+        <v>0.1125885076174526</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2524611227580493</v>
       </c>
       <c r="Q16">
-        <v>0.7054366933518139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6805825151599407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.913334154415224</v>
+        <v>4.915144357852171</v>
       </c>
       <c r="C17">
-        <v>0.8266945435191246</v>
+        <v>0.8335561808245586</v>
       </c>
       <c r="D17">
-        <v>0.09009353548984222</v>
+        <v>0.090168068925081</v>
       </c>
       <c r="E17">
-        <v>0.04531664969572535</v>
+        <v>0.04440983132637744</v>
       </c>
       <c r="F17">
-        <v>0.3560237676728093</v>
+        <v>0.3476753943242556</v>
       </c>
       <c r="G17">
-        <v>0.1852787310877204</v>
+        <v>0.172262992097572</v>
       </c>
       <c r="H17">
-        <v>0.1243419776737369</v>
+        <v>0.1243492815898719</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1942653132826422</v>
+        <v>0.2194938334845276</v>
       </c>
       <c r="K17">
-        <v>0.1372315574204528</v>
+        <v>0.1333091374744302</v>
       </c>
       <c r="L17">
-        <v>0.1007433945920333</v>
+        <v>0.08542744135767122</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02561557638222167</v>
       </c>
       <c r="N17">
-        <v>0.2640873197786391</v>
+        <v>0.1005090352265903</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2692031599786446</v>
       </c>
       <c r="Q17">
-        <v>0.7489616880652648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7276932096204973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.794917589538443</v>
+        <v>4.797038343536087</v>
       </c>
       <c r="C18">
-        <v>0.7756644338076057</v>
+        <v>0.7880585577121906</v>
       </c>
       <c r="D18">
-        <v>0.09793142965347812</v>
+        <v>0.09796766761065356</v>
       </c>
       <c r="E18">
-        <v>0.04588473850667446</v>
+        <v>0.04487033528618944</v>
       </c>
       <c r="F18">
-        <v>0.392497215776956</v>
+        <v>0.3822424833777873</v>
       </c>
       <c r="G18">
-        <v>0.2090781432327091</v>
+        <v>0.1903122919913116</v>
       </c>
       <c r="H18">
-        <v>0.07145741007387585</v>
+        <v>0.07146854206185793</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2082010147079529</v>
+        <v>0.2365462450569638</v>
       </c>
       <c r="K18">
-        <v>0.1474302118769142</v>
+        <v>0.141985737375343</v>
       </c>
       <c r="L18">
-        <v>0.08469771388720204</v>
+        <v>0.08865087439835007</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02862363718265382</v>
       </c>
       <c r="N18">
-        <v>0.3087367170021338</v>
+        <v>0.08435857121621382</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3156508140285013</v>
       </c>
       <c r="Q18">
-        <v>0.8285298371264531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8023530430783836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.756677778595133</v>
+        <v>4.758716657249749</v>
       </c>
       <c r="C19">
-        <v>0.7285053615680681</v>
+        <v>0.7481013790688849</v>
       </c>
       <c r="D19">
-        <v>0.1098485401335054</v>
+        <v>0.1100362536011588</v>
       </c>
       <c r="E19">
-        <v>0.0497951630036475</v>
+        <v>0.04850423004566906</v>
       </c>
       <c r="F19">
-        <v>0.4428117321667102</v>
+        <v>0.4283860869617726</v>
       </c>
       <c r="G19">
-        <v>0.2422561387190711</v>
+        <v>0.2188580349312232</v>
       </c>
       <c r="H19">
-        <v>0.0263552246759744</v>
+        <v>0.02636781721807324</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2259152937348219</v>
+        <v>0.2538216111190863</v>
       </c>
       <c r="K19">
-        <v>0.1600479121571503</v>
+        <v>0.1522640212109918</v>
       </c>
       <c r="L19">
-        <v>0.07183140941643096</v>
+        <v>0.09265549910476611</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03239572033449178</v>
       </c>
       <c r="N19">
-        <v>0.377792594800141</v>
+        <v>0.07113890227430275</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3874687548707954</v>
       </c>
       <c r="Q19">
-        <v>0.935951815629835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8987186919268026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.944328662027829</v>
+        <v>4.9451565595445</v>
       </c>
       <c r="C20">
-        <v>0.6925496873297448</v>
+        <v>0.7242766537941918</v>
       </c>
       <c r="D20">
-        <v>0.132865422537094</v>
+        <v>0.1338138170012684</v>
       </c>
       <c r="E20">
-        <v>0.06243210552690392</v>
+        <v>0.06044582251009878</v>
       </c>
       <c r="F20">
-        <v>0.530044133885518</v>
+        <v>0.5046098252380062</v>
       </c>
       <c r="G20">
-        <v>0.3004078886449477</v>
+        <v>0.2768259878705805</v>
       </c>
       <c r="H20">
-        <v>0.0009459761993104721</v>
+        <v>0.0009281766978457284</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2534829437286135</v>
+        <v>0.2686689041987478</v>
       </c>
       <c r="K20">
-        <v>0.1783245170182663</v>
+        <v>0.1654000803483235</v>
       </c>
       <c r="L20">
-        <v>0.06688140433741641</v>
+        <v>0.09727600613419973</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03862511197599616</v>
       </c>
       <c r="N20">
-        <v>0.5131710043678623</v>
+        <v>0.0650241357055994</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5283063422935754</v>
       </c>
       <c r="Q20">
-        <v>1.117111609341393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.05018715969824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.561230056243005</v>
+        <v>5.558516353296227</v>
       </c>
       <c r="C21">
-        <v>0.7608398287711395</v>
+        <v>0.7949912412661604</v>
       </c>
       <c r="D21">
-        <v>0.1457339205325638</v>
+        <v>0.1500252516673442</v>
       </c>
       <c r="E21">
-        <v>0.06577986155644844</v>
+        <v>0.06371409590232524</v>
       </c>
       <c r="F21">
-        <v>0.5587697609740516</v>
+        <v>0.5119081485089296</v>
       </c>
       <c r="G21">
-        <v>0.3203331968972378</v>
+        <v>0.3496235862820072</v>
       </c>
       <c r="H21">
-        <v>0.002187594963748096</v>
+        <v>0.001983536955952769</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2563491216635327</v>
+        <v>0.2080982869537138</v>
       </c>
       <c r="K21">
-        <v>0.1682392273325064</v>
+        <v>0.1500733811106567</v>
       </c>
       <c r="L21">
-        <v>0.06813388024399844</v>
+        <v>0.09008101253256218</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03710113541746018</v>
       </c>
       <c r="N21">
-        <v>0.5827069242574936</v>
+        <v>0.06588342869603414</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5998546466725401</v>
       </c>
       <c r="Q21">
-        <v>1.165752550949833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.03844601536376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.9646406247752</v>
+        <v>5.959282079802051</v>
       </c>
       <c r="C22">
-        <v>0.8081897443719868</v>
+        <v>0.8428259345815547</v>
       </c>
       <c r="D22">
-        <v>0.1531854742161585</v>
+        <v>0.1599689465247991</v>
       </c>
       <c r="E22">
-        <v>0.0672062135881486</v>
+        <v>0.06516950130921728</v>
       </c>
       <c r="F22">
-        <v>0.5744951516756345</v>
+        <v>0.5126947509857587</v>
       </c>
       <c r="G22">
-        <v>0.3315414336993001</v>
+        <v>0.4030991293608253</v>
       </c>
       <c r="H22">
-        <v>0.003336191191134263</v>
+        <v>0.002949614679645052</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2573614124143546</v>
+        <v>0.1749166069835653</v>
       </c>
       <c r="K22">
-        <v>0.1611455351474405</v>
+        <v>0.1395274902916626</v>
       </c>
       <c r="L22">
-        <v>0.06879631849412338</v>
+        <v>0.08547496536759613</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03605051219050637</v>
       </c>
       <c r="N22">
-        <v>0.6221430502654357</v>
+        <v>0.06637197378206716</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6403132739477968</v>
       </c>
       <c r="Q22">
-        <v>1.19188479927854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.022574417281575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.74928046680111</v>
+        <v>5.74545939771366</v>
       </c>
       <c r="C23">
-        <v>0.7829150724667215</v>
+        <v>0.8183646393017909</v>
       </c>
       <c r="D23">
-        <v>0.1492044744757521</v>
+        <v>0.1542660411127343</v>
       </c>
       <c r="E23">
-        <v>0.06644405060866632</v>
+        <v>0.06435331064049166</v>
       </c>
       <c r="F23">
-        <v>0.5659991549728218</v>
+        <v>0.5140963654874255</v>
       </c>
       <c r="G23">
-        <v>0.3254692560020374</v>
+        <v>0.367356306818948</v>
       </c>
       <c r="H23">
-        <v>0.002695078123341688</v>
+        <v>0.002417525204657656</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2567701858172029</v>
+        <v>0.1966901793340341</v>
       </c>
       <c r="K23">
-        <v>0.1648630594586109</v>
+        <v>0.145586772975733</v>
       </c>
       <c r="L23">
-        <v>0.06844384451553862</v>
+        <v>0.08803378189820599</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0367994480420677</v>
       </c>
       <c r="N23">
-        <v>0.6010863522814986</v>
+        <v>0.06613618155898449</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6187832180675059</v>
       </c>
       <c r="Q23">
-        <v>1.177640419102943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.036236220774541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.934622100758304</v>
+        <v>4.935456588626721</v>
       </c>
       <c r="C24">
-        <v>0.6872440619858651</v>
+        <v>0.7195709908735068</v>
       </c>
       <c r="D24">
-        <v>0.134209942894131</v>
+        <v>0.1351612318233464</v>
       </c>
       <c r="E24">
-        <v>0.06357532364707197</v>
+        <v>0.06153514652328695</v>
       </c>
       <c r="F24">
-        <v>0.5360165096250782</v>
+        <v>0.5101416507465899</v>
       </c>
       <c r="G24">
-        <v>0.3043837461992069</v>
+        <v>0.2799303947138014</v>
       </c>
       <c r="H24">
-        <v>0.0008614833104559905</v>
+        <v>0.0008435618108261211</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2556199556449386</v>
+        <v>0.2711154045493487</v>
       </c>
       <c r="K24">
-        <v>0.1804065909843029</v>
+        <v>0.1671217239247405</v>
       </c>
       <c r="L24">
-        <v>0.0670839809541825</v>
+        <v>0.09794213315100819</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03924164003156427</v>
       </c>
       <c r="N24">
-        <v>0.5215122904512128</v>
+        <v>0.06511160732833643</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5370158883805658</v>
       </c>
       <c r="Q24">
-        <v>1.130011111690095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.061934502552788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.056991472234188</v>
+        <v>4.060650733712805</v>
       </c>
       <c r="C25">
-        <v>0.584065557517448</v>
+        <v>0.6016404464421896</v>
       </c>
       <c r="D25">
-        <v>0.1181873580014781</v>
+        <v>0.1188313991062273</v>
       </c>
       <c r="E25">
-        <v>0.06050841249135885</v>
+        <v>0.05888689854227458</v>
       </c>
       <c r="F25">
-        <v>0.5079404495232467</v>
+        <v>0.4884436429403607</v>
       </c>
       <c r="G25">
-        <v>0.2853093344363131</v>
+        <v>0.2587854668517977</v>
       </c>
       <c r="H25">
-        <v>1.644331331229765E-05</v>
+        <v>3.254586204581855E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2565211606756108</v>
+        <v>0.2787226587329314</v>
       </c>
       <c r="K25">
-        <v>0.2000495102940505</v>
+        <v>0.1871201646968768</v>
       </c>
       <c r="L25">
-        <v>0.0655569026882542</v>
+        <v>0.1081618058613074</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04178948836693053</v>
       </c>
       <c r="N25">
-        <v>0.4359280012960625</v>
+        <v>0.06365044863637581</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4483534713262571</v>
       </c>
       <c r="Q25">
-        <v>1.090868837566163</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.039299266365987</v>
       </c>
     </row>
   </sheetData>
